--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>kritika16.04@gmail.com</t>
+    <t>learnseleniumetlhive@gmail.com</t>
   </si>
   <si>
-    <t>Password123</t>
+    <t>abcd@1234</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -396,13 +396,14 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
